--- a/realme/July/All Details/31.07.2021/realme Bank Statement July-2021.xlsx
+++ b/realme/July/All Details/31.07.2021/realme Bank Statement July-2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\realme\JULY\All Details\31.07.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\realme\July\All Details\31.07.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2477,12 +2477,33 @@
     <xf numFmtId="2" fontId="38" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2510,12 +2531,6 @@
     <xf numFmtId="1" fontId="38" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2528,18 +2543,6 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2622,9 +2625,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3213,21 +3213,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
-      <c r="B1" s="249" t="s">
+      <c r="B1" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1">
       <c r="A2" s="18"/>
-      <c r="B2" s="250" t="s">
+      <c r="B2" s="251" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="250"/>
-      <c r="D2" s="250"/>
-      <c r="E2" s="250"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="19" t="s">
@@ -4444,73 +4444,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="251"/>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="251"/>
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
+      <c r="M1" s="258"/>
+      <c r="N1" s="258"/>
+      <c r="O1" s="258"/>
+      <c r="P1" s="258"/>
+      <c r="Q1" s="258"/>
+      <c r="R1" s="258"/>
+      <c r="S1" s="258"/>
     </row>
     <row r="2" spans="1:26" s="133" customFormat="1" ht="18">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="259" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="252"/>
-      <c r="P2" s="252"/>
-      <c r="Q2" s="252"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="252"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="259"/>
+      <c r="S2" s="259"/>
     </row>
     <row r="3" spans="1:26" s="134" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="260" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="254"/>
-      <c r="K3" s="254"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="254"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="254"/>
-      <c r="S3" s="255"/>
+      <c r="B3" s="261"/>
+      <c r="C3" s="261"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="261"/>
+      <c r="F3" s="261"/>
+      <c r="G3" s="261"/>
+      <c r="H3" s="261"/>
+      <c r="I3" s="261"/>
+      <c r="J3" s="261"/>
+      <c r="K3" s="261"/>
+      <c r="L3" s="261"/>
+      <c r="M3" s="261"/>
+      <c r="N3" s="261"/>
+      <c r="O3" s="261"/>
+      <c r="P3" s="261"/>
+      <c r="Q3" s="261"/>
+      <c r="R3" s="261"/>
+      <c r="S3" s="262"/>
       <c r="U3" s="58"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -4519,58 +4519,58 @@
       <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="1:26" s="136" customFormat="1">
-      <c r="A4" s="256" t="s">
+      <c r="A4" s="263" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="258" t="s">
+      <c r="B4" s="265" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="260" t="s">
+      <c r="C4" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="260" t="s">
+      <c r="D4" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="260" t="s">
+      <c r="E4" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="260" t="s">
+      <c r="F4" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="260" t="s">
+      <c r="G4" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="260" t="s">
+      <c r="H4" s="252" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="260" t="s">
+      <c r="I4" s="252" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="260" t="s">
+      <c r="J4" s="252" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="260" t="s">
+      <c r="K4" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="260" t="s">
+      <c r="L4" s="252" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="260" t="s">
+      <c r="M4" s="252" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="260" t="s">
+      <c r="N4" s="252" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="266" t="s">
+      <c r="O4" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="P4" s="268" t="s">
+      <c r="P4" s="256" t="s">
         <v>92</v>
       </c>
-      <c r="Q4" s="264" t="s">
+      <c r="Q4" s="269" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="262" t="s">
+      <c r="R4" s="267" t="s">
         <v>43</v>
       </c>
       <c r="S4" s="135" t="s">
@@ -4583,24 +4583,24 @@
       <c r="Y4" s="138"/>
     </row>
     <row r="5" spans="1:26" s="136" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="257"/>
-      <c r="B5" s="259"/>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="261"/>
-      <c r="G5" s="261"/>
-      <c r="H5" s="261"/>
-      <c r="I5" s="261"/>
-      <c r="J5" s="261"/>
-      <c r="K5" s="261"/>
-      <c r="L5" s="261"/>
-      <c r="M5" s="261"/>
-      <c r="N5" s="261"/>
-      <c r="O5" s="267"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="265"/>
-      <c r="R5" s="263"/>
+      <c r="A5" s="264"/>
+      <c r="B5" s="266"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="253"/>
+      <c r="J5" s="253"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="253"/>
+      <c r="N5" s="253"/>
+      <c r="O5" s="255"/>
+      <c r="P5" s="257"/>
+      <c r="Q5" s="270"/>
+      <c r="R5" s="268"/>
       <c r="S5" s="140" t="s">
         <v>44</v>
       </c>
@@ -7797,11 +7797,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -7818,6 +7813,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7857,14 +7857,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="277" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
+      <c r="B1" s="277"/>
+      <c r="C1" s="277"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="277"/>
+      <c r="F1" s="277"/>
       <c r="L1" s="48"/>
       <c r="M1" s="191"/>
       <c r="N1" s="191"/>
@@ -7917,14 +7917,14 @@
       <c r="BI1" s="191"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="277" t="s">
+      <c r="A2" s="278" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="277"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
       <c r="L2" s="48"/>
       <c r="M2" s="191"/>
       <c r="N2" s="191"/>
@@ -7977,14 +7977,14 @@
       <c r="BI2" s="191"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="278" t="s">
+      <c r="A3" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="278"/>
-      <c r="C3" s="278"/>
-      <c r="D3" s="278"/>
-      <c r="E3" s="278"/>
-      <c r="F3" s="278"/>
+      <c r="B3" s="279"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
       <c r="K3" s="191"/>
       <c r="L3" s="48"/>
       <c r="M3" s="191"/>
@@ -10160,12 +10160,12 @@
       <c r="BI34" s="191"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="279" t="s">
+      <c r="A35" s="280" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="280"/>
-      <c r="C35" s="280"/>
-      <c r="D35" s="281"/>
+      <c r="B35" s="281"/>
+      <c r="C35" s="281"/>
+      <c r="D35" s="282"/>
       <c r="E35" s="58"/>
       <c r="F35" s="53"/>
       <c r="G35" s="70"/>
@@ -10225,12 +10225,12 @@
       <c r="BI35" s="191"/>
     </row>
     <row r="36" spans="1:61">
-      <c r="A36" s="283" t="s">
+      <c r="A36" s="284" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="284"/>
-      <c r="C36" s="284"/>
-      <c r="D36" s="285"/>
+      <c r="B36" s="285"/>
+      <c r="C36" s="285"/>
+      <c r="D36" s="286"/>
       <c r="E36" s="74">
         <f>F33-C113+K136</f>
         <v>0</v>
@@ -10699,13 +10699,13 @@
       <c r="C43" s="53"/>
       <c r="D43" s="49"/>
       <c r="E43" s="58"/>
-      <c r="F43" s="282" t="s">
+      <c r="F43" s="283" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="282"/>
-      <c r="H43" s="282"/>
-      <c r="I43" s="282"/>
-      <c r="J43" s="282"/>
+      <c r="G43" s="283"/>
+      <c r="H43" s="283"/>
+      <c r="I43" s="283"/>
+      <c r="J43" s="283"/>
       <c r="K43" s="82"/>
       <c r="L43" s="50"/>
       <c r="M43" s="191"/>
@@ -11909,10 +11909,10 @@
       <c r="C62" s="87"/>
       <c r="D62" s="94"/>
       <c r="E62" s="63"/>
-      <c r="F62" s="270" t="s">
+      <c r="F62" s="271" t="s">
         <v>48</v>
       </c>
-      <c r="G62" s="270"/>
+      <c r="G62" s="271"/>
       <c r="H62" s="190"/>
       <c r="I62" s="190"/>
       <c r="J62" s="95" t="s">
@@ -15254,10 +15254,10 @@
       <c r="BI112" s="191"/>
     </row>
     <row r="113" spans="1:61">
-      <c r="A113" s="271" t="s">
+      <c r="A113" s="272" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="272"/>
+      <c r="B113" s="273"/>
       <c r="C113" s="110">
         <f>SUM(C37:C112)</f>
         <v>428100</v>
@@ -15389,10 +15389,10 @@
       <c r="BI114" s="191"/>
     </row>
     <row r="115" spans="1:61">
-      <c r="A115" s="273" t="s">
+      <c r="A115" s="274" t="s">
         <v>30</v>
       </c>
-      <c r="B115" s="274"/>
+      <c r="B115" s="275"/>
       <c r="C115" s="115">
         <f>C113+L136</f>
         <v>428100</v>
@@ -17311,8 +17311,8 @@
       <c r="N169" s="194"/>
     </row>
     <row r="170" spans="5:14">
-      <c r="F170" s="275"/>
-      <c r="G170" s="275"/>
+      <c r="F170" s="276"/>
+      <c r="G170" s="276"/>
       <c r="H170" s="191"/>
       <c r="I170" s="61"/>
       <c r="J170" s="48"/>
@@ -17972,7 +17972,7 @@
   <dimension ref="A1:AC224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17992,35 +17992,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="287" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="288"/>
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="289"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="295" t="s">
+      <c r="A2" s="296" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="296"/>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="297"/>
+      <c r="B2" s="297"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="298"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.25">
-      <c r="A3" s="289" t="s">
+      <c r="A3" s="290" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="291"/>
+      <c r="B3" s="291"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="292"/>
       <c r="F3" s="5"/>
       <c r="G3" s="12"/>
       <c r="H3" s="1"/>
@@ -18137,7 +18137,7 @@
       <c r="H6" s="239">
         <v>250000</v>
       </c>
-      <c r="I6" s="298" t="s">
+      <c r="I6" s="249" t="s">
         <v>89</v>
       </c>
       <c r="J6" s="1"/>
@@ -18534,13 +18534,13 @@
       <c r="AC16" s="5"/>
     </row>
     <row r="17" spans="1:29" ht="22.5">
-      <c r="A17" s="292" t="s">
+      <c r="A17" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="293"/>
-      <c r="C17" s="293"/>
-      <c r="D17" s="293"/>
-      <c r="E17" s="294"/>
+      <c r="B17" s="294"/>
+      <c r="C17" s="294"/>
+      <c r="D17" s="294"/>
+      <c r="E17" s="295"/>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
       <c r="H17" s="219"/>
